--- a/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 4 (27, 47, 13, 25, 5)/NODE_11nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize100_200maxITER_StandardizeAll_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 4 (27, 47, 13, 25, 5)/NODE_11nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize100_200maxITER_StandardizeAll_smoothing0_dropout0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Iterations</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Success %</t>
+  </si>
+  <si>
+    <t>Label</t>
   </si>
   <si>
     <t>Control 37</t>
@@ -419,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,10 +447,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -456,147 +462,177 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.4091014617272299</v>
+        <v>0.4091005477142459</v>
       </c>
       <c r="E2">
-        <v>0.4091014617272299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.4091005477142459</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4681050040398447</v>
+        <v>0.4681202610029285</v>
       </c>
       <c r="E3">
-        <v>0.4681050040398447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.4681202610029285</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6064411550490467</v>
+        <v>0.606438487890233</v>
       </c>
       <c r="E4">
-        <v>0.6064411550490467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.606438487890233</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.121440595858582E-07</v>
+        <v>1.121320758736525E-07</v>
       </c>
       <c r="E5">
-        <v>1.121440595858582E-07</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1.121320758736525E-07</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.3399439020672167</v>
+        <v>0.339944850596451</v>
       </c>
       <c r="E6">
-        <v>0.3399439020672167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.339944850596451</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.8400222470943316</v>
+        <v>0.8400159708232472</v>
       </c>
       <c r="E7">
-        <v>0.1599777529056684</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.1599840291767528</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4225269569934511</v>
+        <v>0.4225270629620901</v>
       </c>
       <c r="E8">
-        <v>0.5774730430065489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.5774729370379099</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3969049489847229</v>
+        <v>0.396905171725738</v>
       </c>
       <c r="E9">
-        <v>0.6030950510152771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.603094828274262</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.6036097632237017</v>
+        <v>0.6036118607889198</v>
       </c>
       <c r="E10">
-        <v>0.3963902367762983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.3963881392110802</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.449648693644884</v>
+        <v>0.4496533255199429</v>
       </c>
       <c r="E11">
-        <v>0.550351306355116</v>
+        <v>0.5503466744800571</v>
       </c>
       <c r="F11">
-        <v>0.5769379734992981</v>
+        <v>0.5769394040107727</v>
       </c>
       <c r="G11">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -610,10 +646,13 @@
       <c r="E12">
         <v>0.3969094859768597</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -624,10 +663,13 @@
       <c r="E13">
         <v>0.4157419064413253</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -638,10 +680,13 @@
       <c r="E14">
         <v>0.6580578329132192</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -652,10 +697,13 @@
       <c r="E15">
         <v>9.340574668841772E-65</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -666,10 +714,13 @@
       <c r="E16">
         <v>0.339215959363679</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -680,10 +731,13 @@
       <c r="E17">
         <v>0.1106614784872877</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -694,10 +748,13 @@
       <c r="E18">
         <v>0.5863672247941332</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -708,10 +765,13 @@
       <c r="E19">
         <v>0.6132849969526014</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -722,10 +782,13 @@
       <c r="E20">
         <v>0.3143962752803994</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -741,6 +804,9 @@
       </c>
       <c r="G21">
         <v>0.7</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
